--- a/data/bus_data.xlsx
+++ b/data/bus_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byun-yewon/protest_alert_service/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byun-yewon/protest-alert-app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805534E0-6FBF-AD44-836A-458D56794EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0393DFE0-7250-814E-9F26-F8AE5AE5B0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8800" yWindow="1140" windowWidth="20180" windowHeight="16380" xr2:uid="{BAA7A885-FF9C-9642-8C42-4D1855693145}"/>
+    <workbookView xWindow="10840" yWindow="1140" windowWidth="18140" windowHeight="16380" xr2:uid="{BAA7A885-FF9C-9642-8C42-4D1855693145}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="16">
   <si>
     <t>ARS_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,21 +153,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,40 +506,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{214C9561-FFDA-5B49-AB91-D14695506EF6}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="1" max="5" width="10.7109375" style="2"/>
+    <col min="6" max="6" width="29.42578125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -548,22 +553,22 @@
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>45885</v>
+        <v>45879</v>
       </c>
       <c r="D2" s="4">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2">
-        <v>126.97699757780001</v>
+        <v>126.9774163</v>
       </c>
       <c r="H2" s="2">
-        <v>37.573648931800001</v>
+        <v>37.572320929999997</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -574,22 +579,22 @@
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>45885</v>
+        <v>45879</v>
       </c>
       <c r="D3" s="4">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="2">
-        <v>126.9770167126</v>
+        <v>126.9769976</v>
       </c>
       <c r="H3" s="2">
-        <v>37.5733655664</v>
+        <v>37.573648929999997</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -600,22 +605,22 @@
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>45885</v>
+        <v>45879</v>
       </c>
       <c r="D4" s="4">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2">
-        <v>126.97701394560001</v>
+        <v>126.97701669999999</v>
       </c>
       <c r="H4" s="2">
-        <v>37.573155856699998</v>
+        <v>37.57336557</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -626,58 +631,835 @@
         <v>0</v>
       </c>
       <c r="C5" s="3">
-        <v>45885</v>
+        <v>45879</v>
       </c>
       <c r="D5" s="4">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E5" s="1" t="s">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="2">
-        <v>126.9769120216</v>
+        <v>126.976912</v>
       </c>
       <c r="H5" s="2">
-        <v>37.573138849899998</v>
+        <v>37.573138849999999</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3">
+        <v>45879</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>45879</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2">
+        <v>126.9770139</v>
+      </c>
+      <c r="H6" s="2">
+        <v>37.57315586</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3">
+        <v>45880</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>45880</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2">
+        <v>126.9774163</v>
+      </c>
+      <c r="H7" s="2">
+        <v>37.572320929999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3">
+        <v>45880</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45880</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2">
+        <v>126.9769976</v>
+      </c>
+      <c r="H8" s="2">
+        <v>37.573648929999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3">
+        <v>45880</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>45880</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2">
+        <v>126.97701669999999</v>
+      </c>
+      <c r="H9" s="2">
+        <v>37.57336557</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3">
+        <v>45880</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>45880</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="2">
+        <v>126.976912</v>
+      </c>
+      <c r="H10" s="2">
+        <v>37.573138849999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3">
+        <v>45880</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>45880</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="2">
+        <v>126.9770139</v>
+      </c>
+      <c r="H11" s="2">
+        <v>37.57315586</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3">
+        <v>45881</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>45881</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="2">
+        <v>126.9774163</v>
+      </c>
+      <c r="H12" s="2">
+        <v>37.572320929999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3">
+        <v>45881</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>45881</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="2">
+        <v>126.9769976</v>
+      </c>
+      <c r="H13" s="2">
+        <v>37.573648929999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3">
+        <v>45881</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>45881</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="2">
+        <v>126.97701669999999</v>
+      </c>
+      <c r="H14" s="2">
+        <v>37.57336557</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3">
+        <v>45881</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>45881</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="2">
+        <v>126.976912</v>
+      </c>
+      <c r="H15" s="2">
+        <v>37.573138849999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3">
+        <v>45881</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>45881</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="2">
+        <v>126.9770139</v>
+      </c>
+      <c r="H16" s="2">
+        <v>37.57315586</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3">
+        <v>45882</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>45882</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="2">
+        <v>126.9774163</v>
+      </c>
+      <c r="H17" s="2">
+        <v>37.572320929999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3">
+        <v>45882</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>45882</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="2">
+        <v>126.9769976</v>
+      </c>
+      <c r="H18" s="2">
+        <v>37.573648929999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="3">
+        <v>45882</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>45882</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="2">
+        <v>126.97701669999999</v>
+      </c>
+      <c r="H19" s="2">
+        <v>37.57336557</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="3">
+        <v>45882</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>45882</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="2">
+        <v>126.976912</v>
+      </c>
+      <c r="H20" s="2">
+        <v>37.573138849999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="3">
+        <v>45882</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>45882</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="2">
+        <v>126.9770139</v>
+      </c>
+      <c r="H21" s="2">
+        <v>37.57315586</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="3">
+        <v>45883</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>45883</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="2">
+        <v>126.9774163</v>
+      </c>
+      <c r="H22" s="2">
+        <v>37.572320929999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="3">
+        <v>45883</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
+        <v>45883</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="2">
+        <v>126.9769976</v>
+      </c>
+      <c r="H23" s="2">
+        <v>37.573648929999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="3">
+        <v>45883</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>45883</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="2">
+        <v>126.97701669999999</v>
+      </c>
+      <c r="H24" s="2">
+        <v>37.57336557</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="3">
+        <v>45883</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
+        <v>45883</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="2">
+        <v>126.976912</v>
+      </c>
+      <c r="H25" s="2">
+        <v>37.573138849999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="3">
+        <v>45883</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>45883</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="2">
+        <v>126.9770139</v>
+      </c>
+      <c r="H26" s="2">
+        <v>37.57315586</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="3">
         <v>45884</v>
       </c>
-      <c r="B6" s="4">
-        <v>0.125</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>45884</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="2">
+        <v>126.9774163</v>
+      </c>
+      <c r="H27" s="2">
+        <v>37.572320929999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="3">
+        <v>45884</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>45884</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="2">
+        <v>126.9769976</v>
+      </c>
+      <c r="H28" s="2">
+        <v>37.573648929999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="3">
+        <v>45884</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3">
+        <v>45884</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="2">
+        <v>126.97701669999999</v>
+      </c>
+      <c r="H29" s="2">
+        <v>37.57336557</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="3">
+        <v>45884</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>45884</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="2">
+        <v>126.976912</v>
+      </c>
+      <c r="H30" s="2">
+        <v>37.573138849999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="3">
+        <v>45884</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3">
+        <v>45884</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="2">
+        <v>126.9770139</v>
+      </c>
+      <c r="H31" s="2">
+        <v>37.57315586</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="3">
         <v>45885</v>
       </c>
-      <c r="D6" s="4">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3">
+        <v>45885</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="2">
-        <v>126.9774162769</v>
-      </c>
-      <c r="H6" s="2">
-        <v>37.5723209262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
+      <c r="G32" s="2">
+        <v>126.9774163</v>
+      </c>
+      <c r="H32" s="2">
+        <v>37.572320929999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="3">
+        <v>45885</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3">
+        <v>45885</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="2">
+        <v>126.9769976</v>
+      </c>
+      <c r="H33" s="2">
+        <v>37.573648929999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="3">
+        <v>45885</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3">
+        <v>45885</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="2">
+        <v>126.97701669999999</v>
+      </c>
+      <c r="H34" s="2">
+        <v>37.57336557</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="3">
+        <v>45885</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3">
+        <v>45885</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="2">
+        <v>126.976912</v>
+      </c>
+      <c r="H35" s="2">
+        <v>37.573138849999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="3">
+        <v>45885</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3">
+        <v>45885</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="2">
+        <v>126.9770139</v>
+      </c>
+      <c r="H36" s="2">
+        <v>37.57315586</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="E2:E16 E17:E36" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>